--- a/Linear-Programming/test_result.xlsx
+++ b/Linear-Programming/test_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuxu/Desktop/TSP_LP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuxu/Desktop/Algorithm/Linear Programming/project/TSP_LP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="21600" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="7500" yWindow="3240" windowWidth="28060" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="186">
   <si>
     <t>case00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,7 +696,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cplex??</t>
+    <t>？：不想算了，执行时间太长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA：没有求出答案，或者时间超过了设定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj1：重复边个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj2：权值和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x：不想算了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expr() multi：目标值使用表达式形式，对应tsp_solver.py中line27 get_objective_Expr()函数的调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addVar() And：目标值使用addVar() 函数产生，并且使用And约束。对应tsp_solver.py中line28 get_objective_addVar()和gurobi_model.py中line32 m.addGenConstrAnd(obj_and[i], [flow[0][e.id], flow[1][e.id]])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addVar() multi：目标值使用addVar() 函数产生，并且使用乘法约束。对应tsp_solver.py中line28 get_objective_addVar()和gurobi_model.py中line33  m.addConstr(obj_and[i] == flow[0][e.id] * flow[1][e.id])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -760,6 +788,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1096,7 +1130,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1204,35 +1238,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1525,11 +1560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26:K26"/>
+      <selection pane="topRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,27 +1584,27 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="46"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="27" t="s">
         <v>105</v>
       </c>
@@ -1676,10 +1711,10 @@
       <c r="I4" s="12">
         <v>509</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="1" t="s">
         <v>75</v>
       </c>
@@ -1713,10 +1748,10 @@
       <c r="I5" s="12">
         <v>56</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="1" t="s">
         <v>76</v>
       </c>
@@ -1750,10 +1785,10 @@
       <c r="I6" s="12">
         <v>756</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="1" t="s">
         <v>77</v>
       </c>
@@ -1787,10 +1822,10 @@
       <c r="I7" s="12">
         <v>69</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="1" t="s">
         <v>78</v>
       </c>
@@ -1824,10 +1859,10 @@
       <c r="I8" s="12">
         <v>2425</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="1" t="s">
         <v>79</v>
       </c>
@@ -1861,10 +1896,10 @@
       <c r="I9" s="12">
         <v>69866</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="1" t="s">
         <v>80</v>
       </c>
@@ -1898,10 +1933,10 @@
       <c r="I10" s="12">
         <v>1616</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="1" t="s">
         <v>81</v>
       </c>
@@ -1935,10 +1970,10 @@
       <c r="I11" s="12">
         <v>43020</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="1" t="s">
         <v>82</v>
       </c>
@@ -1972,10 +2007,10 @@
       <c r="I12" s="12">
         <v>43326</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="1" t="s">
         <v>82</v>
       </c>
@@ -2009,10 +2044,10 @@
       <c r="I13" s="12">
         <v>43326</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="1" t="s">
         <v>82</v>
       </c>
@@ -2046,10 +2081,10 @@
       <c r="I14" s="12">
         <v>9031</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2083,11 +2118,11 @@
       <c r="I15" s="12">
         <v>25200</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
+      <c r="J15" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2118,11 +2153,11 @@
       <c r="I16" s="12">
         <v>20594</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
+      <c r="J16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="29" t="s">
         <v>110</v>
       </c>
@@ -2155,10 +2190,10 @@
       <c r="I17" s="12">
         <v>20646</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="2" t="s">
         <v>84</v>
       </c>
@@ -2192,10 +2227,10 @@
       <c r="I18" s="12">
         <v>1580</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="2" t="s">
         <v>85</v>
       </c>
@@ -2350,10 +2385,10 @@
       <c r="I22" s="12">
         <v>1689</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2387,11 +2422,11 @@
       <c r="I23" s="12">
         <v>1689</v>
       </c>
-      <c r="J23" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
+      <c r="J23" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2461,10 +2496,10 @@
       <c r="I25" s="12">
         <v>6005</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="40"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="2" t="s">
         <v>90</v>
       </c>
@@ -2498,10 +2533,10 @@
       <c r="I26" s="12">
         <v>4695</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K26" s="40"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="2" t="s">
         <v>91</v>
       </c>
@@ -2535,10 +2570,10 @@
       <c r="I27" s="12">
         <v>3951</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="40"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="2" t="s">
         <v>99</v>
       </c>
@@ -2572,10 +2607,10 @@
       <c r="I28" s="12">
         <v>1539</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="40"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="2" t="s">
         <v>100</v>
       </c>
@@ -2609,10 +2644,10 @@
       <c r="I29" s="12">
         <v>1829</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="40"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="2" t="s">
         <v>92</v>
       </c>
@@ -2646,10 +2681,10 @@
       <c r="I30" s="12">
         <v>26854</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K30" s="40"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="2" t="s">
         <v>93</v>
       </c>
@@ -3003,10 +3038,10 @@
       <c r="I39" s="12">
         <v>5730</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="40"/>
+      <c r="K39" s="45"/>
       <c r="L39" s="2" t="s">
         <v>90</v>
       </c>
@@ -3250,23 +3285,59 @@
       </c>
       <c r="M45" s="30"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="39"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
         <v>178</v>
+      </c>
+      <c r="B49" s="39"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J17:K17"/>
@@ -3278,15 +3349,16 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
